--- a/teaching/traditional_assets/database/data/switzerland/switzerland_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_insurance_life.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.04650000000000001</v>
+        <v>-0.0125</v>
       </c>
       <c r="E2">
-        <v>0.07400000000000001</v>
+        <v>0.0638</v>
       </c>
       <c r="F2">
-        <v>0.0762</v>
+        <v>0.026</v>
       </c>
       <c r="G2">
-        <v>0.06750551764377584</v>
+        <v>0.07811595981555833</v>
       </c>
       <c r="H2">
-        <v>0.06750551764377584</v>
+        <v>0.07811595981555833</v>
       </c>
       <c r="I2">
-        <v>0.06843139329387395</v>
+        <v>0.07353998281817066</v>
       </c>
       <c r="J2">
-        <v>0.05417368969993747</v>
+        <v>0.05634425539612973</v>
       </c>
       <c r="K2">
-        <v>1161.1</v>
+        <v>1179.4</v>
       </c>
       <c r="L2">
-        <v>0.04909223132668679</v>
+        <v>0.05169451408734681</v>
       </c>
       <c r="M2">
-        <v>1586.4</v>
+        <v>1004.2</v>
       </c>
       <c r="N2">
-        <v>0.09530160217708654</v>
+        <v>0.07111797283324599</v>
       </c>
       <c r="O2">
-        <v>1.36629058651279</v>
+        <v>0.8514498897744616</v>
       </c>
       <c r="P2">
-        <v>560.6</v>
+        <v>503.7</v>
       </c>
       <c r="Q2">
-        <v>0.03367755810670368</v>
+        <v>0.03567229925921729</v>
       </c>
       <c r="R2">
-        <v>0.4828180173972957</v>
+        <v>0.4270815668984229</v>
       </c>
       <c r="S2">
-        <v>1025.8</v>
+        <v>500.5000000000001</v>
       </c>
       <c r="T2">
-        <v>0.6466212808875442</v>
+        <v>0.498406691894045</v>
       </c>
       <c r="U2">
-        <v>7685</v>
+        <v>8671</v>
       </c>
       <c r="V2">
-        <v>0.4616697004103064</v>
+        <v>0.6140847863344712</v>
       </c>
       <c r="W2">
-        <v>0.07615967885816234</v>
+        <v>0.07035439670239864</v>
       </c>
       <c r="X2">
-        <v>0.08117627677583107</v>
+        <v>0.06940111116996654</v>
       </c>
       <c r="Y2">
-        <v>-0.00501659791766873</v>
+        <v>0.0009532855324320966</v>
       </c>
       <c r="Z2">
-        <v>2.225237384506676</v>
+        <v>1.920195261541051</v>
       </c>
       <c r="AA2">
-        <v>0.1205493195769651</v>
+        <v>0.1081919722267071</v>
       </c>
       <c r="AB2">
-        <v>0.06949385940192687</v>
+        <v>0.0557119928489106</v>
       </c>
       <c r="AC2">
-        <v>0.05105546017503824</v>
+        <v>0.05247997937779649</v>
       </c>
       <c r="AD2">
-        <v>4286.7</v>
+        <v>5304.8</v>
       </c>
       <c r="AE2">
-        <v>156.0087232463476</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4442.708723246347</v>
+        <v>5304.8</v>
       </c>
       <c r="AG2">
-        <v>-3242.291276753653</v>
+        <v>-3366.2</v>
       </c>
       <c r="AH2">
-        <v>0.2106666517558727</v>
+        <v>0.2730913770913771</v>
       </c>
       <c r="AI2">
-        <v>0.2086218639330579</v>
+        <v>0.242434213532955</v>
       </c>
       <c r="AJ2">
-        <v>-0.24189328150666</v>
+        <v>-0.313018411753766</v>
       </c>
       <c r="AK2">
-        <v>-0.2382196979320777</v>
+        <v>-0.2548143886634773</v>
       </c>
       <c r="AL2">
-        <v>282.8</v>
+        <v>269.3</v>
       </c>
       <c r="AM2">
-        <v>282.8</v>
+        <v>269.3</v>
       </c>
       <c r="AN2">
-        <v>2.529324994099599</v>
+        <v>3.089754790610985</v>
       </c>
       <c r="AO2">
-        <v>5.707567185289957</v>
+        <v>6.230226513182324</v>
       </c>
       <c r="AP2">
-        <v>-1.913081942856769</v>
+        <v>-1.960626710932494</v>
       </c>
       <c r="AQ2">
-        <v>5.707567185289957</v>
+        <v>6.230226513182324</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.04650000000000001</v>
+        <v>-0.0125</v>
       </c>
       <c r="E3">
-        <v>0.07400000000000001</v>
+        <v>0.0638</v>
       </c>
       <c r="F3">
-        <v>0.0762</v>
+        <v>0.026</v>
       </c>
       <c r="G3">
-        <v>0.06750551764377584</v>
+        <v>0.07811595981555833</v>
       </c>
       <c r="H3">
-        <v>0.06750551764377584</v>
+        <v>0.07811595981555833</v>
       </c>
       <c r="I3">
-        <v>0.06843139329387395</v>
+        <v>0.07353998281817066</v>
       </c>
       <c r="J3">
-        <v>0.05417368969993747</v>
+        <v>0.05634425539612973</v>
       </c>
       <c r="K3">
-        <v>1161.1</v>
+        <v>1179.4</v>
       </c>
       <c r="L3">
-        <v>0.04909223132668679</v>
+        <v>0.05169451408734681</v>
       </c>
       <c r="M3">
-        <v>1586.4</v>
+        <v>1004.2</v>
       </c>
       <c r="N3">
-        <v>0.09530160217708654</v>
+        <v>0.07111797283324599</v>
       </c>
       <c r="O3">
-        <v>1.36629058651279</v>
+        <v>0.8514498897744616</v>
       </c>
       <c r="P3">
-        <v>560.6</v>
+        <v>503.7</v>
       </c>
       <c r="Q3">
-        <v>0.03367755810670368</v>
+        <v>0.03567229925921729</v>
       </c>
       <c r="R3">
-        <v>0.4828180173972957</v>
+        <v>0.4270815668984229</v>
       </c>
       <c r="S3">
-        <v>1025.8</v>
+        <v>500.5000000000001</v>
       </c>
       <c r="T3">
-        <v>0.6466212808875442</v>
+        <v>0.498406691894045</v>
       </c>
       <c r="U3">
-        <v>7685</v>
+        <v>8671</v>
       </c>
       <c r="V3">
-        <v>0.4616697004103064</v>
+        <v>0.6140847863344712</v>
       </c>
       <c r="W3">
-        <v>0.07615967885816234</v>
+        <v>0.07035439670239864</v>
       </c>
       <c r="X3">
-        <v>0.08117627677583107</v>
+        <v>0.06940111116996654</v>
       </c>
       <c r="Y3">
-        <v>-0.00501659791766873</v>
+        <v>0.0009532855324320966</v>
       </c>
       <c r="Z3">
-        <v>2.225237384506676</v>
+        <v>1.920195261541051</v>
       </c>
       <c r="AA3">
-        <v>0.1205493195769651</v>
+        <v>0.1081919722267071</v>
       </c>
       <c r="AB3">
-        <v>0.06949385940192687</v>
+        <v>0.0557119928489106</v>
       </c>
       <c r="AC3">
-        <v>0.05105546017503824</v>
+        <v>0.05247997937779649</v>
       </c>
       <c r="AD3">
-        <v>4286.7</v>
+        <v>5304.8</v>
       </c>
       <c r="AE3">
-        <v>156.0087232463476</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4442.708723246347</v>
+        <v>5304.8</v>
       </c>
       <c r="AG3">
-        <v>-3242.291276753653</v>
+        <v>-3366.2</v>
       </c>
       <c r="AH3">
-        <v>0.2106666517558727</v>
+        <v>0.2730913770913771</v>
       </c>
       <c r="AI3">
-        <v>0.2086218639330579</v>
+        <v>0.242434213532955</v>
       </c>
       <c r="AJ3">
-        <v>-0.24189328150666</v>
+        <v>-0.313018411753766</v>
       </c>
       <c r="AK3">
-        <v>-0.2382196979320777</v>
+        <v>-0.2548143886634773</v>
       </c>
       <c r="AL3">
-        <v>282.8</v>
+        <v>269.3</v>
       </c>
       <c r="AM3">
-        <v>282.8</v>
+        <v>269.3</v>
       </c>
       <c r="AN3">
-        <v>2.529324994099599</v>
+        <v>3.089754790610985</v>
       </c>
       <c r="AO3">
-        <v>5.707567185289957</v>
+        <v>6.230226513182324</v>
       </c>
       <c r="AP3">
-        <v>-1.913081942856769</v>
+        <v>-1.960626710932494</v>
       </c>
       <c r="AQ3">
-        <v>5.707567185289957</v>
+        <v>6.230226513182324</v>
       </c>
     </row>
   </sheetData>
